--- a/biology/Zoologie/Johann_Siegfried_Hufnagel/Johann_Siegfried_Hufnagel.xlsx
+++ b/biology/Zoologie/Johann_Siegfried_Hufnagel/Johann_Siegfried_Hufnagel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Siegfried Hufnagel, né le 17 octobre 1724 à Falkenwalde (district de Prenzlau) dans le Brandebourg, mort le 23 février 1795 à Langenfeld, (district de Sternberg), est un pasteur allemand et un entomologiste.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jusqu'à la fin du XXe siècle, la vie d'Hufnagel était inconnue. Son prénom même restait inconnu. En 1987, Gerstberger et Stiesy réussirent à retrouver son identité en se fondant sur les travaux de Fischer (1941) et établirent les principaux éléments de la biographie d'Hufnagel.
 Hufnagel est issu d'une famille d'ecclésiastiques protestants, son père et son grand-père étaient eux aussi des pasteurs. Johann Siegfried a probablement fréquenté l'une des universités du nord ou de l'est de l'Allemagne.
@@ -545,7 +559,9 @@
           <t>Son œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Entre 1765 et 1767 Hufnagel publie treize articles sur les lépidoptères, dix d'entre eux en 1766 dans le  "Berlinisches Magazin, oder gesammlete [sic] Schriften und Nachrichten für die Liebhaber der Arzneywissenschaft, Naturgeschichte und der angenehmen Wissenschaften überhaupt", l'un de journaux de vulgarisation couvrant un large éventail de sujets en sciences naturelles et en médecine qui furent fondés au XVIIIe siècle.
 Un de ses articles est consacré aux insectes ravageurs en agriculture, quatre sont des monographies illustrées d'espèces particulières. Les huit autres articles sont un ensemble de tableaux concernant les plus grands papillons de la région de Berlin présents dans la collection d'Hufnagel. Les auteurs postérieurs se réfèreront souvent à ces planches sous le nom "die tabellen". Sous cette forme, les descriptions des nouvelles espèces étaient très limitées. Associé à un manque de rigueur dans la description des taches sur les ailes, ceci contribuera à rendre difficile l'interprétation des descriptions d'Hufnagel.
@@ -579,7 +595,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hufnagel, J. S. [as H==n==l] (1765): Beschreibung einer seltenen, bisher unbekannten Raupe, und der daraus entstehenden Phaläne. – Berlinisches Magazin, 1(6): 648-654, 1 pl.
 Hufnagel, J. S. (1766a): Tabelle von den Tagevögeln der hiesigen Gegend, worauf denen Liebhabern der Insekten Beschaffenheit, Zeit, Ort und andere Umstände der Raupen und der daraus entstehenden Schmetterlinge bestimmt werden. – Berlinisches Magazin, 2(1): 54-90.
@@ -621,7 +639,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Fischer, O. (1941): Evangelisches Pfarrerbuch für die Mark Brandenburg seit der Reformation. – Berlin (E. S. Mittler &amp; Sohn).
 Gerstberger, M. &amp; Stiesy, L. (1987): Schmetterlinge in Berlin-West. Teil II. – Berlin (Förderkreis der naturwissenschaftlichen Museen Berlins e. V.). 96 pp.
